--- a/R/fall_BM_scaled_Atl_DynamicBoxesOnly.xlsx
+++ b/R/fall_BM_scaled_Atl_DynamicBoxesOnly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>acared</t>
   </si>
@@ -105,6 +105,12 @@
     <t>redhak</t>
   </si>
   <si>
+    <t>rosska</t>
+  </si>
+  <si>
+    <t>sandla</t>
+  </si>
+  <si>
     <t>scupzz</t>
   </si>
   <si>
@@ -138,6 +144,9 @@
     <t>thoska</t>
   </si>
   <si>
+    <t>tilefi</t>
+  </si>
+  <si>
     <t>whihak</t>
   </si>
   <si>
@@ -154,6 +163,123 @@
   </si>
   <si>
     <t>yelflo</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>PLA</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>HER</t>
+  </si>
+  <si>
+    <t>MEN</t>
+  </si>
+  <si>
+    <t>POU</t>
+  </si>
+  <si>
+    <t>WOL</t>
+  </si>
+  <si>
+    <t>ANC</t>
+  </si>
+  <si>
+    <t>SCA</t>
+  </si>
+  <si>
+    <t>DOG</t>
+  </si>
+  <si>
+    <t>LOB</t>
+  </si>
+  <si>
+    <t>DRM</t>
+  </si>
+  <si>
+    <t>MAK</t>
+  </si>
+  <si>
+    <t>BSB</t>
+  </si>
+  <si>
+    <t>BLF</t>
+  </si>
+  <si>
+    <t>BUT</t>
+  </si>
+  <si>
+    <t>FOU</t>
+  </si>
+  <si>
+    <t>HAD</t>
+  </si>
+  <si>
+    <t>LSK</t>
+  </si>
+  <si>
+    <t>LSQ</t>
+  </si>
+  <si>
+    <t>GOO</t>
+  </si>
+  <si>
+    <t>OHK</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>RHK</t>
+  </si>
+  <si>
+    <t>SCU</t>
+  </si>
+  <si>
+    <t>SMO</t>
+  </si>
+  <si>
+    <t>ISQ</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
+    <t>STB</t>
+  </si>
+  <si>
+    <t>SUF</t>
+  </si>
+  <si>
+    <t>TAU</t>
+  </si>
+  <si>
+    <t>TYL</t>
+  </si>
+  <si>
+    <t>WHK</t>
+  </si>
+  <si>
+    <t>WPF</t>
+  </si>
+  <si>
+    <t>WTF</t>
+  </si>
+  <si>
+    <t>WIF</t>
+  </si>
+  <si>
+    <t>WSK</t>
+  </si>
+  <si>
+    <t>YTF</t>
   </si>
 </sst>
 </file>
@@ -961,3275 +1087,4781 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection sqref="A1:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="E1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="F1">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="G1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="H1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="I1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="J1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="K1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="L1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="M1">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="N1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="O1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="P1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="Q1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="R1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="S1">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="T1">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="U1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="V1">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="W1">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="X1">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="Y1">
         <v>22</v>
       </c>
+      <c r="Z1">
+        <v>23</v>
+      </c>
+      <c r="AA1">
+        <v>24</v>
+      </c>
+      <c r="AB1">
+        <v>25</v>
+      </c>
+      <c r="AC1">
+        <v>26</v>
+      </c>
+      <c r="AD1">
+        <v>27</v>
+      </c>
+      <c r="AE1">
+        <v>28</v>
+      </c>
+      <c r="AF1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>1.4246229300842E-5</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>1.37436510955809E-4</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>4.83294277548669E-4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>7.3322817928515201E-5</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>5.4470118668775095E-4</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1.71675624333378E-3</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>7.2390131216566397E-4</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>8.6041137157650098E-3</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>6.0342413608075103E-4</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>6.03320575273186E-2</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.213264888906325</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>1.4875459886968E-2</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>5.9035306961663998E-4</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>1.94631511770045E-3</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>5.4367223020052504E-3</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.186593640562077</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>2.4075630473610901E-2</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>1.5704261328882599E-2</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.18566371413089</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.17579969844254301</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>3.6213924520232497E-2</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>6.6602137302062506E-2</v>
       </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>1.1275694623226199E-4</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>2.7535899530623599E-4</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>1.23657593850954E-3</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>4.8020207860199502E-4</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>1.43592725078321E-3</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1.83129704627906E-3</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1.50814499214208E-3</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>1.5692895577217598E-2</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>1.7305473677345399E-3</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.145201744552067</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.183451644821123</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>5.8877168577189297E-2</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>2.0429400559875302E-3</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>6.2787978611320199E-3</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>1.33978182308294E-2</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0.16864899402062999</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>8.1319292036548904E-2</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>4.8405314402167901E-2</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.106105558788335</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>7.9406505917438003E-2</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>2.54478359749368E-2</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>5.7112678568808903E-2</v>
       </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>2.2728069307821502E-3</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>3.9348791242306098E-3</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>1.4130122581743799E-2</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>7.8163437831307008E-3</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.6545380319748199E-2</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>2.3288957636679201E-2</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>3.6495453987927001E-2</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>5.6872695210867297E-2</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>2.7819941206952199E-2</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>9.8225417212518901E-2</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>1.30496495717936E-2</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>5.2125388966608899E-2</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>5.00128344052755E-2</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>4.23473422135398E-2</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>6.9583514638782998E-2</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>2.6784617571401499E-2</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.14667462567895301</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>0.14298148165100599</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>3.5080881332516002E-2</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>2.0406936386204399E-2</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>3.9484487344940401E-2</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>7.4066242244397701E-2</v>
       </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>3.1821678908460199E-4</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>9.4674722730782096E-4</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>6.4498263580563698E-4</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>4.0177112187774399E-4</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.3209267356991299E-3</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1.68146467524613E-3</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1.03673275228932E-2</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>9.1621665757096002E-2</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>8.8563567586254794E-3</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.147863709283167</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>8.7193241756886905E-2</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>4.0186718042847597E-2</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>2.2516665462694301E-2</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>6.9760827850512703E-3</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>5.34730290417662E-2</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>7.6272312206220105E-2</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>6.8775670321544996E-2</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>5.9379841103821898E-2</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>6.6875315537986896E-2</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>6.2119848803418198E-2</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.102018639941659</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>9.0189466489299305E-2</v>
       </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0.142254356972423</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>8.1189273028384107E-2</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>5.7901071077232302E-2</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>4.5459121883959799E-2</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>5.1170168855809398E-2</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>4.3411452242120598E-2</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>4.2716049070464897E-2</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>3.1233400597743301E-2</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>3.71523428102268E-2</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>3.1559883160978297E-2</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>3.5775076510498098E-2</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>3.4543973554699001E-2</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>3.9647190562451001E-2</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>3.9598879023104397E-2</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>3.6448831133898699E-2</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>3.4345046849939699E-2</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>3.3000148665286097E-2</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>3.41978149062147E-2</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>3.63773667750786E-2</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>3.5081251646186598E-2</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>4.0491726239570203E-2</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>3.64455744337304E-2</v>
       </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>2.4010363453839801E-4</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>5.1214294828475003E-4</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>8.7466676708341802E-4</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>2.1916120961562E-4</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>7.60232578753746E-4</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>3.7854106727620101E-3</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>5.7332757159292598E-3</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1.30087156133936E-2</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>3.55055897909449E-3</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>3.5961360902760198E-2</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>4.4898141685539801E-2</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>1.7279790615281301E-2</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>3.2673829827160501E-3</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>8.7761115970245301E-3</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>2.3105792898178899E-2</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.11131588816181601</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.14648641445760999</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.22858090150667101</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.105158786176744</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>4.47602248236455E-2</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>3.3448997527001499E-2</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>0.168275938545556</v>
       </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>3.4297303342067502E-4</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>7.5771051178957001E-4</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>1.0235883802875701E-3</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>5.3118125891383604E-4</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>1.70987798028019E-3</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>4.1965906480959598E-3</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>4.1736102077427296E-3</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>4.8501081313776902E-2</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>6.6223708237295401E-3</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>0.108976077322343</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.154161905565318</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>8.6978681909056596E-2</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>7.9487651239552697E-3</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>1.0062063716646599E-2</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>2.50056970407221E-2</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.103988663412779</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>5.6799219923869097E-2</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>7.3978257827701996E-2</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>9.1029149668672593E-2</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0.10458148065352001</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>4.3596276805619498E-2</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>6.5034776871759806E-2</v>
       </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>4.0445682036911396E-3</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>3.0217827301592401E-3</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>5.2403204449687404E-3</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>3.4171397382586101E-3</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>5.5770941246114196E-3</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1.2657775787177901E-2</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>2.8167466921286199E-2</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>7.1393372324714599E-2</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>1.9924201083493E-2</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.15527422942784599</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>1.8961749320689399E-2</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>7.0074855642514797E-2</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>5.6125945174616901E-2</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>2.0284844688776799E-2</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>5.6343225862142902E-2</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>2.9090863020409401E-2</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.119536354033781</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>0.13995707416594</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>3.03854023924084E-2</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>1.05685959551207E-2</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>2.4941882797184001E-2</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>0.115011256160209</v>
       </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.22466534213490999</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>2.4868130204491599E-2</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>1.0763353103613101E-3</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.22384437577403701</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>2.4600900730412101E-2</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>2.7421047142133798E-3</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.146924868757528</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>6.2504259592367994E-2</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>5.8397188925926602E-3</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>3.53327621354185E-2</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>7.1776686961129996E-4</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>6.9286849288083502E-4</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>6.53392375290266E-3</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>1.3108444253737901E-4</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>1.35564985412475E-4</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>1.6483344355029501E-3</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0.113274173135575</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>0.112166490005536</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>6.8347751574263501E-3</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>1.4142605341778701E-4</v>
       </c>
-      <c r="V10" s="1">
+      <c r="X10" s="1">
         <v>9.6978427407307306E-5</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>5.2278159954579897E-3</v>
       </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <v>2.49207047649881E-6</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>3.1252854783583701E-3</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>4.8319916236567097E-2</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>2.6192940778503203E-4</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>3.13148614433978E-4</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1.5026176125468799E-3</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>4.6100287536394497E-4</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>1.7418149745856699E-3</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>8.5298558125677297E-4</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>3.9446271012825197E-2</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.52831539520398796</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>1.42634995274654E-3</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>9.6256866376219301E-4</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>3.2175962087409899E-3</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>4.7267107332120903E-3</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>9.3504599025323598E-2</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>6.3476364268430499E-3</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>7.5225798202631202E-3</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.112146408127094</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>4.3845015784454197E-2</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>7.7456653319343496E-2</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>2.45010228700289E-2</v>
       </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>7.7068969907687201E-3</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>2.9588086501752198E-2</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>4.0457646296657497E-2</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>3.0198445371170599E-3</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>3.6062633762988003E-2</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>3.9097044698499797E-2</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>2.6320579257032298E-2</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>4.54480398080499E-2</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>4.2325778288720403E-2</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>5.6692035049725198E-2</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>6.7723896899668998E-2</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>5.5922709663070197E-2</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>3.8026668676150399E-2</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>5.3276815935520999E-2</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>4.5694145693182801E-2</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>7.6361966240974105E-2</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>5.0968894556945303E-2</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>4.16076657252787E-2</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>7.0446494600786003E-2</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>6.7621165773992103E-2</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>4.6970475906324201E-2</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>5.8660515136795099E-2</v>
       </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>1.39951267189372E-4</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>5.0117631572516204E-4</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2.5127420790893502E-3</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>2.6007736857402698E-4</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.0111700817652799E-3</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>3.4073931130863201E-3</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>2.89951276409649E-3</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>2.5786131257529401E-2</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>3.19344884361126E-3</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>0.134096775667258</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0.15302476200713699</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>7.2116103538560896E-3</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>2.9133126753478201E-3</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>6.1500695801318698E-3</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>1.49288212881143E-2</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>0.12491002446014</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>0.132197373461241</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>8.2553818362997897E-2</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>6.0527560680952497E-2</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>4.5007717272182599E-2</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>3.31236964111618E-2</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>0.16364285468881301</v>
       </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>9.2783695760594097E-4</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>3.3816142274602601E-3</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>2.66972582240738E-3</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>2.0401966070700099E-3</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>4.7634169948405098E-3</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>1.56244740810792E-2</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>2.4493438661786101E-2</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>8.5439720665964503E-2</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>4.9317788143783001E-2</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>1.7899151676649599E-2</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>4.8713001968757802E-2</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>0.12960934110845301</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>8.0759610121443198E-2</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>7.9611069844441801E-2</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>0.13606627034434901</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>3.01232180185463E-2</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>1.00477178147736E-2</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>2.16596638037015E-2</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>4.9495671073249203E-2</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>5.4914631845095298E-2</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>8.8840937011588295E-2</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>6.3601503206953194E-2</v>
       </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>4.57677129455627E-2</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>3.3898728597976303E-2</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>4.0285578970574297E-2</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>6.7096453753542298E-2</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>3.7497941156420897E-2</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>4.0407577642877397E-2</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>4.9244162712228E-2</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>4.2805849738594401E-2</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>4.1159188300634898E-2</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>4.8814956689465699E-2</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>4.2838082461706901E-2</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>3.8556000487380303E-2</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>4.3049412755543602E-2</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>4.2889818031073501E-2</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>4.9384104784424898E-2</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>4.4175437646906499E-2</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>6.6180715275646104E-2</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>6.0931258575730902E-2</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>4.2518554834594303E-2</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>4.0660334922679703E-2</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>4.3377167967651099E-2</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>3.8460961748785397E-2</v>
       </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>3.7077242293638998E-2</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>4.1611713287256699E-2</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>4.4425235062703301E-2</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>4.24512508697273E-2</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>4.2415828645228401E-2</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>4.4813760970788603E-2</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>4.90298616971502E-2</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>4.52685920926389E-2</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>4.3669558537391698E-2</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>4.4844458930583801E-2</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>5.1416297583870098E-2</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>3.9394262778071502E-2</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>4.14747207570779E-2</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>4.4113885792284098E-2</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>4.1951269180823002E-2</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>5.0489860071984097E-2</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>4.53660144177628E-2</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>4.9086683567602103E-2</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>5.16186920605042E-2</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>5.0549626332319998E-2</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>5.0171854622493198E-2</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>4.8759330448098902E-2</v>
       </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>6.0532193303870697E-2</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>3.0575118633969001E-2</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2.7958800745066299E-2</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>6.6975128411789195E-2</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>3.4773291465694897E-2</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>3.9469652847344203E-2</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>6.4044866557218694E-2</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>6.7299191583248402E-2</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>5.40337075438697E-2</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>3.42997451191649E-2</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>4.2612564655786701E-2</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>3.7611583662681802E-2</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>6.4894059387602204E-2</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>4.82553714143601E-2</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>4.7636239564703503E-2</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>4.4085662468327902E-2</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>3.19946152605005E-2</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>4.1183557437500802E-2</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>4.55841949646291E-2</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>4.0684553196502403E-2</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>3.4781457467122599E-2</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>4.0714444309046298E-2</v>
       </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>1.0365883496616501E-3</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>1.5684513471472101E-3</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>5.5279050243563698E-4</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>3.5206339422544598E-3</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>1.0372346601538499E-3</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>3.9971523338253401E-3</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>5.00174354785793E-2</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>9.3340299651640105E-2</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>1.08969603336245E-2</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>0.296231649118114</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>1.34776362421976E-2</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>2.7624625448233599E-3</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>5.6255003754173798E-3</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>1.50956831461458E-3</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>3.0307607042058802E-3</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>5.1315912317624099E-2</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>0.21709342257431</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>0.16684580005916699</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>3.07029358346406E-2</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>3.0233418433369599E-3</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>3.2383164506335602E-3</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>3.9175147021592797E-2</v>
       </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>5.8144773309147801E-2</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>2.6096617280092101E-2</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>7.9528062059110102E-2</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>6.6666686047238299E-2</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>5.2632981269455301E-2</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>8.9390023373004002E-2</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>6.9782558578250803E-2</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>2.8763638959354399E-2</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>7.6451284720878504E-2</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>4.34633253525799E-2</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>2.72474721952519E-2</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>4.9162328933522403E-2</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>3.9890578448116901E-2</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>4.5812139564086501E-2</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>3.48390721166578E-2</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>2.1555513691516402E-2</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>4.2597034478790402E-2</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>4.8004165315273899E-2</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>2.1899988219477001E-2</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>2.2686032272723099E-2</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>2.5188754564255001E-2</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>3.0196969251217499E-2</v>
       </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>0.107347958235556</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>9.57410023467999E-2</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>6.06435965334347E-2</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>7.1779559705441601E-2</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>7.0990465406971098E-2</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>5.1667589567932597E-2</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>4.7193129584952601E-2</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>2.3421272018697099E-2</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>2.8969446815035198E-2</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>3.3360282625629803E-2</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>4.3844921626972899E-2</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>2.4962097882894801E-2</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>4.4188280530112298E-2</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>2.9640213814109799E-2</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>3.9524937491749401E-2</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>2.9915999515833298E-2</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>2.9581496827005799E-2</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>2.9553922069747499E-2</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>3.4647567715433397E-2</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>3.5332563227183103E-2</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>3.6551198987993902E-2</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>3.11424974705128E-2</v>
       </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>9.6783727036528001E-4</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>2.56714826072461E-2</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>6.3823994879983498E-2</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>4.4877270198513597E-3</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>6.8511081469606702E-2</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>9.1581888004207496E-2</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>4.4025146103579001E-2</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>1.7663161012191599E-2</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>8.6770168324076496E-2</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>3.00041119852806E-2</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>4.3974689276398103E-2</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>5.7573570104991999E-2</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>2.8364745349959301E-2</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>9.5646604030442506E-2</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>7.63482029446894E-2</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>3.6473388838793697E-2</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>2.05656951103328E-2</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>3.09308993929421E-2</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>3.87187408194066E-2</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>4.1342210295453E-2</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>5.0612206956888797E-2</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>4.5942448203313703E-2</v>
       </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>1.8967083528084001E-4</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>2.0421260184212702E-3</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>4.9119965199742703E-3</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>3.9501031552407101E-4</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>6.9024023671019098E-3</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>9.1641272524059392E-3</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>3.2388071190329799E-3</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>2.9857637039765898E-2</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>1.1143265823114199E-2</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>4.3297557532597397E-2</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>8.6259412806313301E-2</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>6.8652851995629496E-2</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>1.47492402064634E-2</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>4.28742121111816E-2</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>0.100513527791043</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>7.59547351546003E-2</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>2.4098374292314002E-2</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>3.05625868083019E-2</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>8.6663802222522596E-2</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>8.6954657960508594E-2</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.15008959074772901</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>0.121484407080174</v>
       </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>1.4708726227559E-2</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>2.7100878504263601E-2</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>2.2364276943113201E-2</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>5.8370741912372001E-2</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>5.3258007992685798E-2</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>4.4305020378478902E-2</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>7.1391385422016201E-2</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>6.1545497199771398E-2</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>5.4261622107363502E-2</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>3.55206730725156E-2</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>3.0843873811317198E-2</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>6.7024777061995999E-2</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>7.8505055647005995E-2</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>5.7345587183778197E-2</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>6.20208822854919E-2</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>2.9685109525672299E-2</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>3.8592292209753201E-2</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>4.16611967945269E-2</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>3.6204534841543998E-2</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>3.2172018302113102E-2</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>3.5095238702220498E-2</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>4.80226038744416E-2</v>
       </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>3.4438009699102698E-2</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>6.4896605660336296E-2</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>7.6206313520669394E-2</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>4.7145441702724299E-2</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>7.4445452656195399E-2</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>8.0517023516864697E-2</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>6.9899922124891004E-2</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>4.8093509068957797E-2</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>7.3470997142666902E-2</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>3.9401396883006402E-2</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>2.51393297532587E-2</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>3.32822115100753E-2</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>6.2228120504348498E-2</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>5.2217562606953601E-2</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>3.5392510164696703E-2</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>1.94488556621637E-2</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>3.5225006582966602E-2</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>3.9466166620369197E-2</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>1.99375535716033E-2</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>1.8522326399404501E-2</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>2.29665869296686E-2</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>2.7659097719076601E-2</v>
       </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>2.2696104649541599E-4</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>3.5266132312095399E-3</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>4.6102903087317397E-2</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>8.6217980118959603E-4</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>3.2625540211744103E-2</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>5.7822224941500501E-2</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>1.17404605525998E-2</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>2.3525216951802E-2</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>3.5802850666843203E-2</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>5.28127005368337E-2</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>8.1130016490035595E-2</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>5.3125082234376002E-2</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>5.9689717179320203E-3</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>5.1494122240112503E-2</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>5.6320564831233197E-2</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>8.2745139076835103E-2</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>6.1537447370801197E-2</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>5.45572844234921E-2</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>7.3460328396715402E-2</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>7.5151794980808595E-2</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>6.8960118920901897E-2</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>7.0501478289221195E-2</v>
       </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>3.1812597499567799E-4</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>2.66350239117528E-3</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>3.9537097863254099E-3</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>9.1514407064635195E-4</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>1.53480932564836E-2</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>1.35971038211467E-2</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>1.07622143782782E-2</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>9.0118238923133698E-2</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>1.4960529885243601E-2</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>0.103408535277319</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>9.1813355660736298E-2</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>5.45040794355355E-2</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>1.18961595346374E-2</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>4.89990794503374E-2</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>5.8362411865032701E-2</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>7.1527180189503894E-2</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>6.00665735468984E-2</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>6.1055923247206698E-2</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>7.1010035037746999E-2</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>5.3934640683115299E-2</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>8.3865730979296005E-2</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>7.6919632605205998E-2</v>
       </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>1.6803114696057799E-3</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>3.9835767127347198E-4</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>0.38811047349740202</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>1.7676834852288501E-3</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>6.5555721924319493E-2</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0.132841179067483</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>7.6719089203285303E-4</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>1.89349886134296E-3</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>8.20522673354971E-2</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>1.7218902031870702E-2</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>1.34915198497901E-2</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>2.4219438652771899E-3</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>3.0169284752747398E-4</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>0.12551626388808301</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>3.5160544135366699E-2</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>1.6819813291887201E-2</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>1.13435966067938E-2</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>2.3730683309598499E-2</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>1.5131572594722999E-2</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>6.64802109955591E-3</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>1.17877167116784E-2</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>4.5361045563662397E-2</v>
       </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>2.8048196991761699E-4</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>1.29958831821922E-3</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>1.7826631512939299E-3</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>2.6579717236961599E-4</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>1.16263502782923E-3</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>3.5084476392114E-3</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>1.9733447808506898E-3</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>3.12779076826908E-2</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>1.59417602447158E-3</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>8.2387222994579595E-2</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>8.0978350407718405E-2</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>3.03530580311097E-2</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>3.7773864042868499E-3</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>4.5733559325621701E-3</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>4.9218883978201899E-2</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>9.5569768957278506E-2</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>3.8063828749451599E-2</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>4.7394576577124502E-2</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>0.10773098105291</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>9.8404941908777202E-2</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.16261345232351301</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <v>0.155789150915632</v>
       </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>3.8869212194662798E-4</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>2.3994246702414099E-3</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>1.7884410850449201E-2</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>1.04179299486141E-3</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>1.6112939924383701E-2</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>3.2762242497322298E-2</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>9.98699008339686E-3</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>3.0173766122607599E-2</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>2.9117621870497899E-2</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>8.9836699146436702E-2</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>0.101370140292209</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>7.6203975240709196E-2</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>9.8544181788468698E-3</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>5.7532116774303102E-2</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>4.4968166245588699E-2</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>0.101086675389292</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>6.6971235810563801E-2</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>5.9855310187063797E-2</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>7.3347893193256394E-2</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>7.2803611692344103E-2</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>4.6826557501588401E-2</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>5.9475319212091197E-2</v>
       </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>4.1908186446933099E-4</v>
+      </c>
+      <c r="E30">
+        <v>3.8075392929924699E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.65575537935256001</v>
+      </c>
+      <c r="G30">
+        <v>3.4454536524600898E-4</v>
+      </c>
+      <c r="H30">
+        <v>7.4428278491328007E-2</v>
+      </c>
+      <c r="I30">
+        <v>3.5104763665753103E-2</v>
+      </c>
+      <c r="J30">
+        <v>2.25243530820494E-3</v>
+      </c>
+      <c r="K30">
+        <v>1.26742372132717E-3</v>
+      </c>
+      <c r="L30">
+        <v>4.75280557307649E-2</v>
+      </c>
+      <c r="M30">
+        <v>5.6426021627036796E-4</v>
+      </c>
+      <c r="N30">
+        <v>4.0499953325296599E-3</v>
+      </c>
+      <c r="O30">
+        <v>2.08553285222739E-4</v>
+      </c>
+      <c r="P30">
+        <v>1.95320422013617E-4</v>
+      </c>
+      <c r="Q30">
+        <v>8.3064850463437104E-2</v>
+      </c>
+      <c r="R30">
+        <v>3.15498573867858E-3</v>
+      </c>
+      <c r="S30">
+        <v>2.9110284761488698E-4</v>
+      </c>
+      <c r="T30">
+        <v>3.0456502845471002E-4</v>
+      </c>
+      <c r="U30">
+        <v>1.7470529520332301E-3</v>
+      </c>
+      <c r="V30">
+        <v>6.8494031833064601E-4</v>
+      </c>
+      <c r="W30">
+        <v>7.2321069408823704E-4</v>
+      </c>
+      <c r="X30">
+        <v>9.7876709671630199E-3</v>
+      </c>
+      <c r="Y30">
+        <v>4.0048135304585397E-2</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>5.9464229481883896E-3</v>
+      </c>
+      <c r="E31">
+        <v>6.6243677515854901E-2</v>
+      </c>
+      <c r="F31">
+        <v>1.7181149166388899E-2</v>
+      </c>
+      <c r="G31">
+        <v>1.24542001160816E-2</v>
+      </c>
+      <c r="H31">
+        <v>1.3877396522085399E-2</v>
+      </c>
+      <c r="I31">
+        <v>2.6204778366107E-3</v>
+      </c>
+      <c r="J31">
+        <v>5.28040302125133E-2</v>
+      </c>
+      <c r="K31">
+        <v>0.25314407368687503</v>
+      </c>
+      <c r="L31">
+        <v>2.8148068721598401E-2</v>
+      </c>
+      <c r="M31">
+        <v>8.4535553912767195E-2</v>
+      </c>
+      <c r="N31">
+        <v>1.0471917423081E-2</v>
+      </c>
+      <c r="O31">
+        <v>6.4785011302979104E-2</v>
+      </c>
+      <c r="P31">
+        <v>0.202682172850329</v>
+      </c>
+      <c r="Q31">
+        <v>4.4903062414003003E-3</v>
+      </c>
+      <c r="R31">
+        <v>8.5400150987197498E-2</v>
+      </c>
+      <c r="S31">
+        <v>3.0491545424357002E-3</v>
+      </c>
+      <c r="T31">
+        <v>1.8960777329459201E-2</v>
+      </c>
+      <c r="U31">
+        <v>3.4430487448666398E-2</v>
+      </c>
+      <c r="V31">
+        <v>7.3693301228673503E-3</v>
+      </c>
+      <c r="W31">
+        <v>2.6305259533624999E-3</v>
+      </c>
+      <c r="X31">
+        <v>1.08155544809847E-2</v>
+      </c>
+      <c r="Y31">
+        <v>1.7959560678273399E-2</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>6.5533514393480596E-2</v>
       </c>
-      <c r="C30">
+      <c r="E32">
         <v>3.6698308176370299E-2</v>
       </c>
-      <c r="D30">
+      <c r="F32">
         <v>5.03006725727922E-2</v>
       </c>
-      <c r="E30">
+      <c r="G32">
         <v>5.0967622795161399E-2</v>
       </c>
-      <c r="F30">
+      <c r="H32">
         <v>3.7940428514027402E-2</v>
       </c>
-      <c r="G30">
+      <c r="I32">
         <v>4.57976091609427E-2</v>
       </c>
-      <c r="H30">
+      <c r="J32">
         <v>6.4157539549665799E-2</v>
       </c>
-      <c r="I30">
+      <c r="K32">
         <v>2.7504864218069299E-2</v>
       </c>
-      <c r="J30">
+      <c r="L32">
         <v>5.0679279379648001E-2</v>
       </c>
-      <c r="K30">
+      <c r="M32">
         <v>2.7265718072605801E-2</v>
       </c>
-      <c r="L30">
+      <c r="N32">
         <v>4.9449015899566802E-2</v>
       </c>
-      <c r="M30">
+      <c r="O32">
         <v>4.5391903241811603E-2</v>
       </c>
-      <c r="N30">
+      <c r="P32">
         <v>2.0346970424590698E-2</v>
       </c>
-      <c r="O30">
+      <c r="Q32">
         <v>5.5497175424373602E-2</v>
       </c>
-      <c r="P30">
+      <c r="R32">
         <v>5.0318676673508402E-2</v>
       </c>
-      <c r="Q30">
+      <c r="S32">
         <v>4.8690394998604697E-2</v>
       </c>
-      <c r="R30">
+      <c r="T32">
         <v>3.8365316680772601E-2</v>
       </c>
-      <c r="S30">
+      <c r="U32">
         <v>3.3457453497631601E-2</v>
       </c>
-      <c r="T30">
+      <c r="V32">
         <v>5.0156743787791801E-2</v>
       </c>
-      <c r="U30">
+      <c r="W32">
         <v>4.9330260513766599E-2</v>
       </c>
-      <c r="V30">
+      <c r="X32">
         <v>5.03630942999874E-2</v>
       </c>
-      <c r="W30">
+      <c r="Y32">
         <v>5.17874377248305E-2</v>
       </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>8.30263017927196E-4</v>
       </c>
-      <c r="C31">
+      <c r="E33">
         <v>4.6019320856209002E-2</v>
       </c>
-      <c r="D31">
+      <c r="F33">
         <v>0.113888328687041</v>
       </c>
-      <c r="E31">
+      <c r="G33">
         <v>2.0943142952847501E-3</v>
       </c>
-      <c r="F31">
+      <c r="H33">
         <v>9.5412321673145506E-2</v>
       </c>
-      <c r="G31">
+      <c r="I33">
         <v>5.4391782137415398E-2</v>
       </c>
-      <c r="H31">
+      <c r="J33">
         <v>2.4853068681567801E-2</v>
       </c>
-      <c r="I31">
+      <c r="K33">
         <v>1.97054898724115E-2</v>
       </c>
-      <c r="J31">
+      <c r="L33">
         <v>2.7905276244858598E-2</v>
       </c>
-      <c r="K31">
+      <c r="M33">
         <v>1.8393254759732101E-2</v>
       </c>
-      <c r="L31">
+      <c r="N33">
         <v>4.9210953580220602E-2</v>
       </c>
-      <c r="M31">
+      <c r="O33">
         <v>4.4264923096092298E-2</v>
       </c>
-      <c r="N31">
+      <c r="P33">
         <v>6.31600942105307E-3</v>
       </c>
-      <c r="O31">
+      <c r="Q33">
         <v>7.4664684134847101E-2</v>
       </c>
-      <c r="P31">
+      <c r="R33">
         <v>7.2679659063843702E-2</v>
       </c>
-      <c r="Q31">
+      <c r="S33">
         <v>4.0085823063778302E-2</v>
       </c>
-      <c r="R31">
+      <c r="T33">
         <v>3.0764185810052899E-2</v>
       </c>
-      <c r="S31">
+      <c r="U33">
         <v>4.2519932670536303E-2</v>
       </c>
-      <c r="T31">
+      <c r="V33">
         <v>5.0818291773184997E-2</v>
       </c>
-      <c r="U31">
+      <c r="W33">
         <v>4.8161593037127998E-2</v>
       </c>
-      <c r="V31">
+      <c r="X33">
         <v>6.9558841861755094E-2</v>
       </c>
-      <c r="W31">
+      <c r="Y33">
         <v>6.7461682261915207E-2</v>
       </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>1.18881971279427E-3</v>
       </c>
-      <c r="C32">
+      <c r="E34">
         <v>8.2924177655907504E-3</v>
       </c>
-      <c r="D32">
+      <c r="F34">
         <v>9.6534611501054496E-2</v>
       </c>
-      <c r="E32">
+      <c r="G34">
         <v>1.6262347161558801E-3</v>
       </c>
-      <c r="F32">
+      <c r="H34">
         <v>3.7888143028325501E-2</v>
       </c>
-      <c r="G32">
+      <c r="I34">
         <v>4.5773441358735303E-2</v>
       </c>
-      <c r="H32">
+      <c r="J34">
         <v>4.9975078343732302E-3</v>
       </c>
-      <c r="I32">
+      <c r="K34">
         <v>2.2648830141579201E-2</v>
       </c>
-      <c r="J32">
+      <c r="L34">
         <v>3.9217698436631102E-2</v>
       </c>
-      <c r="K32">
+      <c r="M34">
         <v>4.1827764672911598E-2</v>
       </c>
-      <c r="L32">
+      <c r="N34">
         <v>6.5061842082942994E-2</v>
       </c>
-      <c r="M32">
+      <c r="O34">
         <v>4.8439396758841298E-2</v>
       </c>
-      <c r="N32">
+      <c r="P34">
         <v>2.6550849599174E-2</v>
       </c>
-      <c r="O32">
+      <c r="Q34">
         <v>5.91044776105124E-2</v>
       </c>
-      <c r="P32">
+      <c r="R34">
         <v>4.9549382388614699E-2</v>
       </c>
-      <c r="Q32">
+      <c r="S34">
         <v>7.1023850088155094E-2</v>
       </c>
-      <c r="R32">
+      <c r="T34">
         <v>5.3743632083064902E-2</v>
       </c>
-      <c r="S32">
+      <c r="U34">
         <v>5.7992693626360101E-2</v>
       </c>
-      <c r="T32">
+      <c r="V34">
         <v>6.8729998478045895E-2</v>
       </c>
-      <c r="U32">
+      <c r="W34">
         <v>6.0427846210914203E-2</v>
       </c>
-      <c r="V32">
+      <c r="X34">
         <v>5.5426897998347803E-2</v>
       </c>
-      <c r="W32">
+      <c r="Y34">
         <v>8.3953663906875295E-2</v>
       </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>6.4180746403827405E-4</v>
       </c>
-      <c r="C33">
+      <c r="E35">
         <v>4.4145793263919396E-3</v>
       </c>
-      <c r="D33">
+      <c r="F35">
         <v>1.8628920121942699E-2</v>
       </c>
-      <c r="E33">
+      <c r="G35">
         <v>2.54700294312929E-3</v>
       </c>
-      <c r="F33">
+      <c r="H35">
         <v>1.9057993679118899E-2</v>
       </c>
-      <c r="G33">
+      <c r="I35">
         <v>3.4671362952079302E-2</v>
       </c>
-      <c r="H33">
+      <c r="J35">
         <v>1.89803137882983E-2</v>
       </c>
-      <c r="I33">
+      <c r="K35">
         <v>3.2312488242626697E-2</v>
       </c>
-      <c r="J33">
+      <c r="L35">
         <v>3.6919829527031003E-2</v>
       </c>
-      <c r="K33">
+      <c r="M35">
         <v>7.5990349210100394E-2</v>
       </c>
-      <c r="L33">
+      <c r="N35">
         <v>7.8093599986254703E-2</v>
       </c>
-      <c r="M33">
+      <c r="O35">
         <v>6.3403362053288295E-2</v>
       </c>
-      <c r="N33">
+      <c r="P35">
         <v>1.54992563076649E-2</v>
       </c>
-      <c r="O33">
+      <c r="Q35">
         <v>4.6866583948203699E-2</v>
       </c>
-      <c r="P33">
+      <c r="R35">
         <v>3.8039018991843303E-2</v>
       </c>
-      <c r="Q33">
+      <c r="S35">
         <v>8.8734014772076902E-2</v>
       </c>
-      <c r="R33">
+      <c r="T35">
         <v>8.4292847376390104E-2</v>
       </c>
-      <c r="S33">
+      <c r="U35">
         <v>8.1522381431754901E-2</v>
       </c>
-      <c r="T33">
+      <c r="V35">
         <v>8.1756304315430406E-2</v>
       </c>
-      <c r="U33">
+      <c r="W35">
         <v>7.3884080909445898E-2</v>
       </c>
-      <c r="V33">
+      <c r="X35">
         <v>4.61115514091371E-2</v>
       </c>
-      <c r="W33">
+      <c r="Y35">
         <v>5.7632351243753002E-2</v>
       </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>7.8416504859914193E-2</v>
       </c>
-      <c r="C34">
+      <c r="E36">
         <v>3.9228464550078203E-2</v>
       </c>
-      <c r="D34">
+      <c r="F36">
         <v>3.3412952459627797E-2</v>
       </c>
-      <c r="E34">
+      <c r="G36">
         <v>9.4163840525339507E-2</v>
       </c>
-      <c r="F34">
+      <c r="H36">
         <v>5.8350034820553003E-2</v>
       </c>
-      <c r="G34">
+      <c r="I36">
         <v>4.6829373834905E-2</v>
       </c>
-      <c r="H34">
+      <c r="J36">
         <v>7.8577487318746295E-2</v>
       </c>
-      <c r="I34">
+      <c r="K36">
         <v>4.8863614635407199E-2</v>
       </c>
-      <c r="J34">
+      <c r="L36">
         <v>5.31231461751248E-2</v>
       </c>
-      <c r="K34">
+      <c r="M36">
         <v>2.2674838529107899E-2</v>
       </c>
-      <c r="L34">
+      <c r="N36">
         <v>3.6315163866574303E-2</v>
       </c>
-      <c r="M34">
+      <c r="O36">
         <v>3.2556422204872398E-2</v>
       </c>
-      <c r="N34">
+      <c r="P36">
         <v>4.32981479784341E-2</v>
       </c>
-      <c r="O34">
+      <c r="Q36">
         <v>4.6369737165926399E-2</v>
       </c>
-      <c r="P34">
+      <c r="R36">
         <v>4.1680624710717103E-2</v>
       </c>
-      <c r="Q34">
+      <c r="S36">
         <v>3.7169324203261099E-2</v>
       </c>
-      <c r="R34">
+      <c r="T36">
         <v>2.9160872093905499E-2</v>
       </c>
-      <c r="S34">
+      <c r="U36">
         <v>2.8719247510477799E-2</v>
       </c>
-      <c r="T34">
+      <c r="V36">
         <v>3.8596129124595001E-2</v>
       </c>
-      <c r="U34">
+      <c r="W36">
         <v>3.7646743311120799E-2</v>
       </c>
-      <c r="V34">
+      <c r="X36">
         <v>3.61645758960389E-2</v>
       </c>
-      <c r="W34">
+      <c r="Y36">
         <v>3.86827542252728E-2</v>
       </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>1.22936729331198E-4</v>
       </c>
-      <c r="C35">
+      <c r="E37">
         <v>3.0901544643252999E-4</v>
       </c>
-      <c r="D35">
+      <c r="F37">
         <v>1.6749086043752E-3</v>
       </c>
-      <c r="E35">
+      <c r="G37">
         <v>1.9738985193881801E-4</v>
       </c>
-      <c r="F35">
+      <c r="H37">
         <v>1.23700789373582E-3</v>
       </c>
-      <c r="G35">
+      <c r="I37">
         <v>2.11362239703527E-3</v>
       </c>
-      <c r="H35">
+      <c r="J37">
         <v>1.8525358461589699E-3</v>
       </c>
-      <c r="I35">
+      <c r="K37">
         <v>4.1656365067846701E-2</v>
       </c>
-      <c r="J35">
+      <c r="L37">
         <v>3.0415016300425601E-3</v>
       </c>
-      <c r="K35">
+      <c r="M37">
         <v>3.3994616993023898E-2</v>
       </c>
-      <c r="L35">
+      <c r="N37">
         <v>0.200868922593163</v>
       </c>
-      <c r="M35">
+      <c r="O37">
         <v>3.2424313553432199E-2</v>
       </c>
-      <c r="N35">
+      <c r="P37">
         <v>2.2643910777243501E-3</v>
       </c>
-      <c r="O35">
+      <c r="Q37">
         <v>5.7787539315387803E-3</v>
       </c>
-      <c r="P35">
+      <c r="R37">
         <v>1.62491022699538E-2</v>
       </c>
-      <c r="Q35">
+      <c r="S37">
         <v>0.14767390439393499</v>
       </c>
-      <c r="R35">
+      <c r="T37">
         <v>1.40167366516079E-2</v>
       </c>
-      <c r="S35">
+      <c r="U37">
         <v>2.1356908987402799E-2</v>
       </c>
-      <c r="T35">
+      <c r="V37">
         <v>0.16881399747113501</v>
       </c>
-      <c r="U35">
+      <c r="W37">
         <v>0.154026863865768</v>
       </c>
-      <c r="V35">
+      <c r="X37">
         <v>8.4776401069153101E-2</v>
       </c>
-      <c r="W35">
+      <c r="Y37">
         <v>6.5549803675265597E-2</v>
       </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>2.1880971240244699E-3</v>
       </c>
-      <c r="C36">
+      <c r="E38">
         <v>7.9730047898294593E-3</v>
       </c>
-      <c r="D36">
+      <c r="F38">
         <v>4.9518340492115702E-3</v>
       </c>
-      <c r="E36">
+      <c r="G38">
         <v>7.1709625531748604E-3</v>
       </c>
-      <c r="F36">
+      <c r="H38">
         <v>2.1851432976445699E-2</v>
       </c>
-      <c r="G36">
+      <c r="I38">
         <v>3.2793062631116199E-2</v>
       </c>
-      <c r="H36">
+      <c r="J38">
         <v>6.4283196310314594E-2</v>
       </c>
-      <c r="I36">
+      <c r="K38">
         <v>0.121892680013613</v>
       </c>
-      <c r="J36">
+      <c r="L38">
         <v>5.0765743899777602E-2</v>
       </c>
-      <c r="K36">
+      <c r="M38">
         <v>9.6427572947491505E-2</v>
       </c>
-      <c r="L36">
+      <c r="N38">
         <v>5.7590324866139103E-2</v>
       </c>
-      <c r="M36">
+      <c r="O38">
         <v>4.13086363229343E-2</v>
       </c>
-      <c r="N36">
+      <c r="P38">
         <v>7.0291323621219898E-2</v>
       </c>
-      <c r="O36">
+      <c r="Q38">
         <v>4.15994372477521E-2</v>
       </c>
-      <c r="P36">
+      <c r="R38">
         <v>4.0148814577233197E-2</v>
       </c>
-      <c r="Q36">
+      <c r="S38">
         <v>7.5841033790056994E-2</v>
       </c>
-      <c r="R36">
+      <c r="T38">
         <v>6.3203964693243894E-2</v>
       </c>
-      <c r="S36">
+      <c r="U38">
         <v>5.8180753578799697E-2</v>
       </c>
-      <c r="T36">
+      <c r="V38">
         <v>4.8366736825298601E-2</v>
       </c>
-      <c r="U36">
+      <c r="W38">
         <v>2.4439728982551898E-2</v>
       </c>
-      <c r="V36">
+      <c r="X38">
         <v>1.6413908320408399E-2</v>
       </c>
-      <c r="W36">
+      <c r="Y38">
         <v>5.2317749879363003E-2</v>
       </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>1.7854447560254501E-2</v>
       </c>
-      <c r="C37">
+      <c r="E39">
         <v>2.2271688457011999E-2</v>
       </c>
-      <c r="D37">
+      <c r="F39">
         <v>3.5035853815323002E-2</v>
       </c>
-      <c r="E37">
+      <c r="G39">
         <v>9.3680871472964E-2</v>
       </c>
-      <c r="F37">
+      <c r="H39">
         <v>2.6933910405253499E-2</v>
       </c>
-      <c r="G37">
+      <c r="I39">
         <v>2.9817942536287501E-2</v>
       </c>
-      <c r="H37">
+      <c r="J39">
         <v>5.2021599991800303E-2</v>
       </c>
-      <c r="I37">
+      <c r="K39">
         <v>0.12912302714284801</v>
       </c>
-      <c r="J37">
+      <c r="L39">
         <v>4.3409634976892701E-2</v>
       </c>
-      <c r="K37">
+      <c r="M39">
         <v>4.8087411582095098E-2</v>
       </c>
-      <c r="L37">
+      <c r="N39">
         <v>3.5204327740629898E-2</v>
       </c>
-      <c r="M37">
+      <c r="O39">
         <v>4.2434876688807799E-2</v>
       </c>
-      <c r="N37">
+      <c r="P39">
         <v>2.76814117707785E-2</v>
       </c>
-      <c r="O37">
+      <c r="Q39">
         <v>4.6876214969655897E-2</v>
       </c>
-      <c r="P37">
+      <c r="R39">
         <v>3.7928230667091799E-2</v>
       </c>
-      <c r="Q37">
+      <c r="S39">
         <v>3.7847425093596399E-2</v>
       </c>
-      <c r="R37">
+      <c r="T39">
         <v>5.3049865272711397E-2</v>
       </c>
-      <c r="S37">
+      <c r="U39">
         <v>5.8366883293110398E-2</v>
       </c>
-      <c r="T37">
+      <c r="V39">
         <v>3.9856461773132699E-2</v>
       </c>
-      <c r="U37">
+      <c r="W39">
         <v>3.4810151931289501E-2</v>
       </c>
-      <c r="V37">
+      <c r="X39">
         <v>4.2535398937426999E-2</v>
       </c>
-      <c r="W37">
+      <c r="Y39">
         <v>4.5172363921037899E-2</v>
       </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>6.7111709576941903E-2</v>
       </c>
-      <c r="C38">
+      <c r="E40">
         <v>4.5787130128647303E-2</v>
       </c>
-      <c r="D38">
+      <c r="F40">
         <v>4.0590059362498099E-2</v>
       </c>
-      <c r="E38">
+      <c r="G40">
         <v>0.112975799225135</v>
       </c>
-      <c r="F38">
+      <c r="H40">
         <v>4.9032020118324499E-2</v>
       </c>
-      <c r="G38">
+      <c r="I40">
         <v>4.5440599247206802E-2</v>
       </c>
-      <c r="H38">
+      <c r="J40">
         <v>0.102529216029658</v>
       </c>
-      <c r="I38">
+      <c r="K40">
         <v>4.1396734249601198E-2</v>
       </c>
-      <c r="J38">
+      <c r="L40">
         <v>7.1063820684444598E-2</v>
       </c>
-      <c r="K38">
+      <c r="M40">
         <v>2.7650441676812E-2</v>
       </c>
-      <c r="L38">
+      <c r="N40">
         <v>2.7598796591570201E-2</v>
       </c>
-      <c r="M38">
+      <c r="O40">
         <v>4.0611684002746201E-2</v>
       </c>
-      <c r="N38">
+      <c r="P40">
         <v>4.5386008801037998E-2</v>
       </c>
-      <c r="O38">
+      <c r="Q40">
         <v>4.7750801999167501E-2</v>
       </c>
-      <c r="P38">
+      <c r="R40">
         <v>3.9385539218835898E-2</v>
       </c>
-      <c r="Q38">
+      <c r="S40">
         <v>2.60364442631861E-2</v>
       </c>
-      <c r="R38">
+      <c r="T40">
         <v>3.2534607255126601E-2</v>
       </c>
-      <c r="S38">
+      <c r="U40">
         <v>3.0588898028709999E-2</v>
       </c>
-      <c r="T38">
+      <c r="V40">
         <v>2.7005412623129599E-2</v>
       </c>
-      <c r="U38">
+      <c r="W40">
         <v>2.44910443266784E-2</v>
       </c>
-      <c r="V38">
+      <c r="X40">
         <v>2.8227073330579701E-2</v>
       </c>
-      <c r="W38">
+      <c r="Y40">
         <v>2.6806159259961899E-2</v>
       </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>1.5521267880190899E-2</v>
       </c>
-      <c r="C39">
+      <c r="E41">
         <v>2.6813534633227502E-2</v>
       </c>
-      <c r="D39">
+      <c r="F41">
         <v>3.8332907160723302E-2</v>
       </c>
-      <c r="E39">
+      <c r="G41">
         <v>3.85695847688656E-2</v>
       </c>
-      <c r="F39">
+      <c r="H41">
         <v>3.5329329720631797E-2</v>
       </c>
-      <c r="G39">
+      <c r="I41">
         <v>3.9923851246888298E-2</v>
       </c>
-      <c r="H39">
+      <c r="J41">
         <v>4.1780566563256502E-2</v>
       </c>
-      <c r="I39">
+      <c r="K41">
         <v>4.0653545459400801E-2</v>
       </c>
-      <c r="J39">
+      <c r="L41">
         <v>5.13200285153863E-2</v>
       </c>
-      <c r="K39">
+      <c r="M41">
         <v>4.3759050673935602E-2</v>
       </c>
-      <c r="L39">
+      <c r="N41">
         <v>5.1787990088727802E-2</v>
       </c>
-      <c r="M39">
+      <c r="O41">
         <v>4.9249919974794297E-2</v>
       </c>
-      <c r="N39">
+      <c r="P41">
         <v>4.9035226166192498E-2</v>
       </c>
-      <c r="O39">
+      <c r="Q41">
         <v>6.01678007367678E-2</v>
       </c>
-      <c r="P39">
+      <c r="R41">
         <v>5.9889625767816201E-2</v>
       </c>
-      <c r="Q39">
+      <c r="S41">
         <v>5.1169583350476E-2</v>
       </c>
-      <c r="R39">
+      <c r="T41">
         <v>4.8520588111641498E-2</v>
       </c>
-      <c r="S39">
+      <c r="U41">
         <v>5.4351200714783401E-2</v>
       </c>
-      <c r="T39">
+      <c r="V41">
         <v>5.3058357076556401E-2</v>
       </c>
-      <c r="U39">
+      <c r="W41">
         <v>5.0599212750247001E-2</v>
       </c>
-      <c r="V39">
+      <c r="X41">
         <v>4.4459104575744403E-2</v>
       </c>
-      <c r="W39">
+      <c r="Y41">
         <v>5.57077240637458E-2</v>
       </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
         <v>4.9314850042790601E-5</v>
       </c>
-      <c r="C40">
+      <c r="E42">
         <v>3.6816434714830298E-4</v>
       </c>
-      <c r="D40">
+      <c r="F42">
         <v>8.7010657872494302E-4</v>
       </c>
-      <c r="E40" s="1">
+      <c r="G42" s="1">
         <v>4.6620983403947898E-5</v>
       </c>
-      <c r="F40">
+      <c r="H42">
         <v>1.08958906224384E-3</v>
       </c>
-      <c r="G40">
+      <c r="I42">
         <v>2.1721866620419798E-3</v>
       </c>
-      <c r="H40">
+      <c r="J42">
         <v>9.5655416223311299E-4</v>
       </c>
-      <c r="I40">
+      <c r="K42">
         <v>2.4147975046857201E-2</v>
       </c>
-      <c r="J40">
+      <c r="L42">
         <v>1.9321172598620001E-3</v>
       </c>
-      <c r="K40">
+      <c r="M42">
         <v>8.6557336519230699E-2</v>
       </c>
-      <c r="L40">
+      <c r="N42">
         <v>0.146968644549131</v>
       </c>
-      <c r="M40">
+      <c r="O42">
         <v>2.3614932606396001E-2</v>
       </c>
-      <c r="N40">
+      <c r="P42">
         <v>1.00324904538754E-3</v>
       </c>
-      <c r="O40">
+      <c r="Q42">
         <v>6.8436205115376299E-3</v>
       </c>
-      <c r="P40">
+      <c r="R42">
         <v>3.8591917576482497E-2</v>
       </c>
-      <c r="Q40">
+      <c r="S42">
         <v>0.14634401360853799</v>
       </c>
-      <c r="R40">
+      <c r="T42">
         <v>5.7819267566173498E-2</v>
       </c>
-      <c r="S40">
+      <c r="U42">
         <v>4.43264831040708E-2</v>
       </c>
-      <c r="T40">
+      <c r="V42">
         <v>0.1147039554158</v>
       </c>
-      <c r="U40">
+      <c r="W42">
         <v>0.10724715007300401</v>
       </c>
-      <c r="V40">
+      <c r="X42">
         <v>0.115724330549312</v>
       </c>
-      <c r="W40">
+      <c r="Y42">
         <v>7.8622469922377605E-2</v>
       </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>3.7486363116038602E-4</v>
+      </c>
+      <c r="E43">
+        <v>9.3919386600252695E-3</v>
+      </c>
+      <c r="F43">
+        <v>0.16519353936259701</v>
+      </c>
+      <c r="G43">
+        <v>6.2819533726399604E-3</v>
+      </c>
+      <c r="H43">
+        <v>0.19843628276432199</v>
+      </c>
+      <c r="I43">
+        <v>0.391486560693874</v>
+      </c>
+      <c r="J43">
+        <v>1.3578858784106299E-3</v>
+      </c>
+      <c r="K43">
+        <v>3.2595942668640898E-4</v>
+      </c>
+      <c r="L43">
+        <v>9.7959557698294106E-2</v>
+      </c>
+      <c r="M43">
+        <v>2.7911968315555602E-3</v>
+      </c>
+      <c r="N43">
+        <v>4.1164323663106699E-3</v>
+      </c>
+      <c r="O43">
+        <v>1.6581332023548001E-2</v>
+      </c>
+      <c r="P43">
+        <v>2.1713935783830799E-3</v>
+      </c>
+      <c r="Q43">
+        <v>5.5978691611543299E-2</v>
+      </c>
+      <c r="R43">
+        <v>2.8554215172824399E-3</v>
+      </c>
+      <c r="S43">
+        <v>1.4054105049091301E-3</v>
+      </c>
+      <c r="T43">
+        <v>9.2575183241858996E-3</v>
+      </c>
+      <c r="U43">
+        <v>5.3786142195689597E-3</v>
+      </c>
+      <c r="V43">
+        <v>4.9261914931208999E-3</v>
+      </c>
+      <c r="W43">
+        <v>2.3447706358241201E-4</v>
+      </c>
+      <c r="X43">
+        <v>4.00907154145744E-3</v>
+      </c>
+      <c r="Y43">
+        <v>1.94857074365429E-2</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
         <v>1.31702643116527E-4</v>
       </c>
-      <c r="C41">
+      <c r="E44">
         <v>4.9930760225556199E-4</v>
       </c>
-      <c r="D41">
+      <c r="F44">
         <v>4.1638617812697204E-3</v>
       </c>
-      <c r="E41">
+      <c r="G44">
         <v>3.8658709766046498E-4</v>
       </c>
-      <c r="F41">
+      <c r="H44">
         <v>2.93767569817408E-3</v>
       </c>
-      <c r="G41">
+      <c r="I44">
         <v>5.2235633579991699E-3</v>
       </c>
-      <c r="H41">
+      <c r="J44">
         <v>2.8631790693220902E-3</v>
       </c>
-      <c r="I41">
+      <c r="K44">
         <v>2.3857787190972899E-2</v>
       </c>
-      <c r="J41">
+      <c r="L44">
         <v>6.9929112235260103E-3</v>
       </c>
-      <c r="K41">
+      <c r="M44">
         <v>6.8753575650172899E-2</v>
       </c>
-      <c r="L41">
+      <c r="N44">
         <v>0.116671923426291</v>
       </c>
-      <c r="M41">
+      <c r="O44">
         <v>3.8992699361948102E-2</v>
       </c>
-      <c r="N41">
+      <c r="P44">
         <v>6.8572441321635902E-3</v>
       </c>
-      <c r="O41">
+      <c r="Q44">
         <v>1.4154914535539499E-2</v>
       </c>
-      <c r="P41">
+      <c r="R44">
         <v>2.41476923669404E-2</v>
       </c>
-      <c r="Q41">
+      <c r="S44">
         <v>0.12646904001308501</v>
       </c>
-      <c r="R41">
+      <c r="T44">
         <v>8.5567283195707194E-2</v>
       </c>
-      <c r="S41">
+      <c r="U44">
         <v>8.5426595686699094E-2</v>
       </c>
-      <c r="T41">
+      <c r="V44">
         <v>0.128431783054683</v>
       </c>
-      <c r="U41">
+      <c r="W44">
         <v>0.112493183829649</v>
       </c>
-      <c r="V41">
+      <c r="X44">
         <v>5.6089117754836798E-2</v>
       </c>
-      <c r="W41">
+      <c r="Y44">
         <v>8.8888371327988297E-2</v>
       </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
         <v>2.7193455902135E-2</v>
       </c>
-      <c r="C42">
+      <c r="E45">
         <v>2.7682183552106401E-2</v>
       </c>
-      <c r="D42">
+      <c r="F45">
         <v>2.7787872046025799E-2</v>
       </c>
-      <c r="E42">
+      <c r="G45">
         <v>5.2290467702519598E-2</v>
       </c>
-      <c r="F42">
+      <c r="H45">
         <v>3.7735101524310602E-2</v>
       </c>
-      <c r="G42">
+      <c r="I45">
         <v>2.84386680438161E-2</v>
       </c>
-      <c r="H42">
+      <c r="J45">
         <v>5.6396383626286503E-2</v>
       </c>
-      <c r="I42">
+      <c r="K45">
         <v>5.6846822317638601E-2</v>
       </c>
-      <c r="J42">
+      <c r="L45">
         <v>4.7653405485353198E-2</v>
       </c>
-      <c r="K42">
+      <c r="M45">
         <v>4.1730965853826997E-2</v>
       </c>
-      <c r="L42">
+      <c r="N45">
         <v>4.15827943237898E-2</v>
       </c>
-      <c r="M42">
+      <c r="O45">
         <v>6.4475064548267694E-2</v>
       </c>
-      <c r="N42">
+      <c r="P45">
         <v>0.107673524324152</v>
       </c>
-      <c r="O42">
+      <c r="Q45">
         <v>4.4189654815226499E-2</v>
       </c>
-      <c r="P42">
+      <c r="R45">
         <v>6.4957043906179596E-2</v>
       </c>
-      <c r="Q42">
+      <c r="S45">
         <v>4.3235825069339498E-2</v>
       </c>
-      <c r="R42">
+      <c r="T45">
         <v>3.45411356670298E-2</v>
       </c>
-      <c r="S42">
+      <c r="U45">
         <v>3.8350563629104897E-2</v>
       </c>
-      <c r="T42">
+      <c r="V45">
         <v>4.5702540173990697E-2</v>
       </c>
-      <c r="U42">
+      <c r="W45">
         <v>3.7280110595592997E-2</v>
       </c>
-      <c r="V42">
+      <c r="X45">
         <v>3.1279223849653801E-2</v>
       </c>
-      <c r="W42">
+      <c r="Y45">
         <v>4.2977193043654098E-2</v>
       </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>1.6285721986393901E-3</v>
       </c>
-      <c r="C43">
+      <c r="E46">
         <v>5.1624788863632197E-3</v>
       </c>
-      <c r="D43">
+      <c r="F46">
         <v>1.80473514438298E-3</v>
       </c>
-      <c r="E43">
+      <c r="G46">
         <v>1.3732067936302E-2</v>
       </c>
-      <c r="F43">
+      <c r="H46">
         <v>1.8573127475665099E-2</v>
       </c>
-      <c r="G43">
+      <c r="I46">
         <v>1.35302859550033E-2</v>
       </c>
-      <c r="H43">
+      <c r="J46">
         <v>6.6539869759579498E-2</v>
       </c>
-      <c r="I43">
+      <c r="K46">
         <v>0.106011951574622</v>
       </c>
-      <c r="J43">
+      <c r="L46">
         <v>3.5009511625692998E-2</v>
       </c>
-      <c r="K43">
+      <c r="M46">
         <v>0.125525006153209</v>
       </c>
-      <c r="L43">
+      <c r="N46">
         <v>3.12991141711602E-2</v>
       </c>
-      <c r="M43">
+      <c r="O46">
         <v>8.1992336847759001E-2</v>
       </c>
-      <c r="N43">
+      <c r="P46">
         <v>5.9951656896749098E-2</v>
       </c>
-      <c r="O43">
+      <c r="Q46">
         <v>1.89923283680541E-2</v>
       </c>
-      <c r="P43">
+      <c r="R46">
         <v>5.8114793587743602E-2</v>
       </c>
-      <c r="Q43">
+      <c r="S46">
         <v>4.3030307451399297E-2</v>
       </c>
-      <c r="R43">
+      <c r="T46">
         <v>8.3004707807123698E-2</v>
       </c>
-      <c r="S43">
+      <c r="U46">
         <v>7.5365888636640205E-2</v>
       </c>
-      <c r="T43">
+      <c r="V46">
         <v>3.5617164720588901E-2</v>
       </c>
-      <c r="U43">
+      <c r="W46">
         <v>1.9835244044905099E-2</v>
       </c>
-      <c r="V43">
+      <c r="X46">
         <v>2.6775172259001299E-2</v>
       </c>
-      <c r="W43">
+      <c r="Y46">
         <v>7.8503678499416002E-2</v>
       </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
         <v>4.8221678160572197E-3</v>
       </c>
-      <c r="C44">
+      <c r="E47">
         <v>2.7696451759649499E-3</v>
       </c>
-      <c r="D44">
+      <c r="F47">
         <v>1.69720454383E-3</v>
       </c>
-      <c r="E44">
+      <c r="G47">
         <v>2.7525536666475899E-2</v>
       </c>
-      <c r="F44">
+      <c r="H47">
         <v>6.4581603388339003E-3</v>
       </c>
-      <c r="G44">
+      <c r="I47">
         <v>9.6802435906823605E-3</v>
       </c>
-      <c r="H44">
+      <c r="J47">
         <v>7.6990531387530994E-2</v>
       </c>
-      <c r="I44">
+      <c r="K47">
         <v>0.15704902127671899</v>
       </c>
-      <c r="J44">
+      <c r="L47">
         <v>4.5430658143342198E-2</v>
       </c>
-      <c r="K44">
+      <c r="M47">
         <v>3.3866118701515797E-2</v>
       </c>
-      <c r="L44">
+      <c r="N47">
         <v>1.21911601720073E-2</v>
       </c>
-      <c r="M44">
+      <c r="O47">
         <v>9.73174505024198E-2</v>
       </c>
-      <c r="N44">
+      <c r="P47">
         <v>0.159724183652631</v>
       </c>
-      <c r="O44">
+      <c r="Q47">
         <v>5.6288906234871802E-2</v>
       </c>
-      <c r="P44">
+      <c r="R47">
         <v>0.12276510086522099</v>
       </c>
-      <c r="Q44">
+      <c r="S47">
         <v>1.8068442249123198E-2</v>
       </c>
-      <c r="R44">
+      <c r="T47">
         <v>3.2732540064775002E-2</v>
       </c>
-      <c r="S44">
+      <c r="U47">
         <v>3.5355465287998003E-2</v>
       </c>
-      <c r="T44">
+      <c r="V47">
         <v>1.5133451392483999E-2</v>
       </c>
-      <c r="U44">
+      <c r="W47">
         <v>1.0971146118152499E-2</v>
       </c>
-      <c r="V44">
+      <c r="X47">
         <v>3.3379059488789303E-2</v>
       </c>
-      <c r="W44">
+      <c r="Y47">
         <v>3.97838063305751E-2</v>
       </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
         <v>5.2992239091489903E-5</v>
       </c>
-      <c r="C45">
+      <c r="E48">
         <v>8.5910043225145805E-4</v>
       </c>
-      <c r="D45">
+      <c r="F48">
         <v>9.5881992517366996E-3</v>
       </c>
-      <c r="E45">
+      <c r="G48">
         <v>7.2906285793154302E-4</v>
       </c>
-      <c r="F45">
+      <c r="H48">
         <v>7.3892501849188502E-3</v>
       </c>
-      <c r="G45">
+      <c r="I48">
         <v>1.0589277597797399E-2</v>
       </c>
-      <c r="H45">
+      <c r="J48">
         <v>8.0226916027937797E-4</v>
       </c>
-      <c r="I45">
+      <c r="K48">
         <v>1.60730879056988E-2</v>
       </c>
-      <c r="J45">
+      <c r="L48">
         <v>4.1651864385350897E-3</v>
       </c>
-      <c r="K45">
+      <c r="M48">
         <v>6.5248132792840502E-2</v>
       </c>
-      <c r="L45">
+      <c r="N48">
         <v>0.133140704919504</v>
       </c>
-      <c r="M45">
+      <c r="O48">
         <v>5.0951559836517099E-2</v>
       </c>
-      <c r="N45">
+      <c r="P48">
         <v>8.0899263966034902E-4</v>
       </c>
-      <c r="O45">
+      <c r="Q48">
         <v>7.0310663942158604E-3</v>
       </c>
-      <c r="P45">
+      <c r="R48">
         <v>8.3538916449706398E-3</v>
       </c>
-      <c r="Q45">
+      <c r="S48">
         <v>0.19642773069359101</v>
       </c>
-      <c r="R45">
+      <c r="T48">
         <v>4.7354405611937003E-2</v>
       </c>
-      <c r="S45">
+      <c r="U48">
         <v>4.17003309510207E-2</v>
       </c>
-      <c r="T45">
+      <c r="V48">
         <v>0.15374172756799401</v>
       </c>
-      <c r="U45">
+      <c r="W48">
         <v>0.105052941325833</v>
       </c>
-      <c r="V45">
+      <c r="X48">
         <v>5.7307676722726499E-2</v>
       </c>
-      <c r="W45">
+      <c r="Y48">
         <v>8.2632412830947702E-2</v>
       </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>5.0632729111378704E-4</v>
       </c>
-      <c r="C46">
+      <c r="E49">
         <v>2.9681233506223198E-3</v>
       </c>
-      <c r="D46">
+      <c r="F49">
         <v>6.0586116293630697E-3</v>
       </c>
-      <c r="E46">
+      <c r="G49">
         <v>1.14968316886866E-3</v>
       </c>
-      <c r="F46">
+      <c r="H49">
         <v>1.3339589866688499E-2</v>
       </c>
-      <c r="G46">
+      <c r="I49">
         <v>2.2529759761980302E-2</v>
       </c>
-      <c r="H46">
+      <c r="J49">
         <v>2.5345441820647501E-2</v>
       </c>
-      <c r="I46">
+      <c r="K49">
         <v>5.4792649910510201E-2</v>
       </c>
-      <c r="J46">
+      <c r="L49">
         <v>3.1198077766707601E-2</v>
       </c>
-      <c r="K46">
+      <c r="M49">
         <v>0.120074492478976</v>
       </c>
-      <c r="L46">
+      <c r="N49">
         <v>5.6680794370651703E-2</v>
       </c>
-      <c r="M46">
+      <c r="O49">
         <v>8.2200430852603604E-2</v>
       </c>
-      <c r="N46">
+      <c r="P49">
         <v>2.6106621288804199E-2</v>
       </c>
-      <c r="O46">
+      <c r="Q49">
         <v>5.3263595434104E-2</v>
       </c>
-      <c r="P46">
+      <c r="R49">
         <v>0.147831258375484</v>
       </c>
-      <c r="Q46">
+      <c r="S49">
         <v>6.6006544716402299E-2</v>
       </c>
-      <c r="R46">
+      <c r="T49">
         <v>7.1937709735722999E-2</v>
       </c>
-      <c r="S46">
+      <c r="U49">
         <v>3.6106685585371702E-2</v>
       </c>
-      <c r="T46">
+      <c r="V49">
         <v>4.4449484156354899E-2</v>
       </c>
-      <c r="U46">
+      <c r="W49">
         <v>3.8711963282869501E-2</v>
       </c>
-      <c r="V46">
+      <c r="X49">
         <v>3.3300811578213803E-2</v>
       </c>
-      <c r="W46">
+      <c r="Y49">
         <v>6.5441343577940098E-2</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
